--- a/stress_strain_excel/stress_strain_lap=20_210711.xlsx
+++ b/stress_strain_excel/stress_strain_lap=20_210711.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10509"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/大学関連/M2/ansys/stress_strain_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1AA8C9-6055-DF4C-95AF-CE272C894275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9874DD7-7A45-5D49-858F-F89987A71283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>TIME</t>
   </si>
@@ -34,24 +34,10 @@
     <t>stress</t>
   </si>
   <si>
-    <t>Z</t>
-    <phoneticPr fontId="2"/>
+    <t>詳細</t>
   </si>
   <si>
-    <t>CFRP2本でラップが20mm</t>
-    <rPh sb="5" eb="6">
-      <t>ホn</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CFRP部分のメッシュを細かく分割した．</t>
-    <rPh sb="4" eb="6">
-      <t>ブブn</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>コマカ</t>
-    </rPh>
+    <t>CFRPの継ぎ手長さが20CFRP部分のメッシュを細くした．</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -140,1501 +126,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.5469816272965877E-2"/>
-          <c:y val="0.13467592592592595"/>
-          <c:w val="0.88386351706036748"/>
-          <c:h val="0.72088764946048411"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>stress</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:strRef>
-              <c:f>Sheet1!$C$2:$C$101</c:f>
-              <c:strCache>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>8.33333E-05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.000166667</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.00025</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.000333333</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.000416667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.000583333</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.000666667</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.00075</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.000833333</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.000916667</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.001083333</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.001166667</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.00125</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.001333333</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.001416667</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.0015</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.001583333</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.001666667</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.00175</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.001833333</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.001916667</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.002083333</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.002166667</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.00225</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.002333333</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.002416667</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.0025</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.002583333</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.002666667</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.00275</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.002833333</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.002916667</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.003083333</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.003166667</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.00325</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.003333333</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.003416667</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.0035</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.003583333</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.003666667</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.00375</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.003833333</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.003916667</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.004</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.004083333</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.004166667</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.00425</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.004333333</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.004416667</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.0045</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.004583333</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.004666667</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.00475</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.004833333</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.004916667</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.005</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.005083333</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.005166667</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.00525</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.005333333</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.005416667</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.0055</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.005583333</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.005666667</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.00575</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.005833333</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.005916667</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.006</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.006083333</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.006166667</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.00625</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.006333333</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.006416667</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.0065</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.006583333</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.006666667</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.00675</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.006833333</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.006916667</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.007</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.007083333</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.007166667</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.00725</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.007333333</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.007416667</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.0075</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.007583333</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.007666667</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.00775</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.007833333</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.007916667</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.008</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.008083333</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.008166667</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.00825</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>Z</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$2:$D$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>0.48702674897119341</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.48581893004115229</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.72872839506172848</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.97163786008230457</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2145473251028811</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.457456790123457</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7003662551440331</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.9432777777777781</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.18619341563786</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.4290946502057609</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.6719958847736631</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.914917695473251</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.1578189300411519</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.4007407407407411</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.643641975308642</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.8865637860082298</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.1294650205761316</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.3723662551440334</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.6152880658436208</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.8581893004115226</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.1011111111111109</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.3440123456790118</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.5869135802469136</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5.8298353909465019</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.0727366255144029</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.3156584362139911</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.5585596707818921</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6.8014609053497939</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.044382716049383</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.2872839506172831</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.5302057613168722</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7.7731069958847741</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8.016008230452675</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8.2589300411522633</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8.5018312757201642</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8.7447530864197525</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>8.9876543209876552</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>9.2305555555555561</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9.4734773662551444</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>9.7163786008230453</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>9.9593004115226336</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>10.202201646090529</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>10.445102880658441</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>10.68802469135802</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>10.93092592592593</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>11.173847736625509</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>11.416748971193419</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>11.659670781893</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>11.902572016460899</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>12.145473251028809</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>12.388395061728399</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>12.63129629629629</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>12.87421810699588</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>13.117119341563781</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>13.36002057613169</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>13.60294238683128</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>13.84584362139918</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>14.08876543209877</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>14.331666666666671</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>14.57456790123457</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>14.81748971193416</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>15.060390946502061</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>15.303312757201651</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>15.54621399176955</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>15.789115226337451</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>16.032037037037039</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>16.274938271604942</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>16.51786008230453</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>16.760761316872429</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>17.003662551440328</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>17.24658436213992</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>17.489485596707819</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>17.732407407407411</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>17.97530864197531</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>18.218230452674899</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>18.461131687242801</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>18.7040329218107</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>18.946954732510289</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>19.189855967078191</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>19.43277777777778</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>19.675679012345679</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>19.918580246913582</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>20.16150205761317</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>20.404403292181069</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>20.647325102880661</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>20.890123456790121</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>21.133127572016459</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>21.3761316872428</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>21.618930041152261</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>21.861934156378599</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>22.104732510288059</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>22.347736625514401</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>22.590534979423872</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>22.833539094650209</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>23.07633744855967</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>23.319341563786011</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>23.562139917695468</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>23.80514403292181</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>24.048148148148151</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>24.290946502057611</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1457-7B45-81C1-FE7B1910F9C3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="670450480"/>
-        <c:axId val="895819344"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="670450480"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="895819344"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="895819344"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="670450480"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{089235D1-94CC-EF47-8015-9E851CCBA2EE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1676,7 +169,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1708,27 +201,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1760,24 +235,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1954,15 +411,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1975,8 +432,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>0.01</v>
       </c>
@@ -1989,11 +452,8 @@
       <c r="D2">
         <v>0.48702674897119341</v>
       </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>0.02</v>
       </c>
@@ -2006,11 +466,8 @@
       <c r="D3">
         <v>0.48581893004115229</v>
       </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>0.03</v>
       </c>
@@ -2024,7 +481,7 @@
         <v>0.72872839506172848</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>0.04</v>
       </c>
@@ -2038,7 +495,7 @@
         <v>0.97163786008230457</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>0.05</v>
       </c>
@@ -2052,7 +509,7 @@
         <v>1.2145473251028811</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>0.06</v>
       </c>
@@ -2066,7 +523,7 @@
         <v>1.457456790123457</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -2080,7 +537,7 @@
         <v>1.7003662551440331</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>0.08</v>
       </c>
@@ -2094,7 +551,7 @@
         <v>1.9432777777777781</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>0.09</v>
       </c>
@@ -2108,7 +565,7 @@
         <v>2.18619341563786</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>0.1</v>
       </c>
@@ -2122,7 +579,7 @@
         <v>2.4290946502057609</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>0.11</v>
       </c>
@@ -2136,7 +593,7 @@
         <v>2.6719958847736631</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>0.12</v>
       </c>
@@ -2150,7 +607,7 @@
         <v>2.914917695473251</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>0.13</v>
       </c>
@@ -2164,7 +621,7 @@
         <v>3.1578189300411519</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>0.14000000000000001</v>
       </c>
@@ -2178,7 +635,7 @@
         <v>3.4007407407407411</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>0.15</v>
       </c>
@@ -3375,8 +1832,8 @@
       <c r="B101">
         <v>1180.54</v>
       </c>
-      <c r="C101" t="s">
-        <v>4</v>
+      <c r="C101">
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="D101">
         <v>24.290946502057611</v>
@@ -3385,6 +1842,5 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>